--- a/data/trans_bre/P38C-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P38C-Estudios-trans_bre.xlsx
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.583470627743797</v>
+        <v>1.699412325587929</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.372682535148674</v>
+        <v>3.093180143644831</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.01745806965312377</v>
+        <v>0.01871997584198985</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.03732071078595128</v>
+        <v>0.03454284725786575</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.242652204157726</v>
+        <v>7.250854365914074</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.30299726108533</v>
+        <v>10.18501839195978</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.08363088719874985</v>
+        <v>0.0838008856001196</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.1218029385104683</v>
+        <v>0.1216661339362711</v>
       </c>
     </row>
     <row r="7">
@@ -662,7 +662,7 @@
         <v>0.08326235673042502</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.08875992252191975</v>
+        <v>0.08875992252191976</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>4.088540548852152</v>
+        <v>4.222225660049874</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.833543774951838</v>
+        <v>3.573450515631468</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.05073063830530958</v>
+        <v>0.05220703194682592</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.04950005137534091</v>
+        <v>0.04678047559453057</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>9.100091684137473</v>
+        <v>8.919266061218938</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>10.10321668874127</v>
+        <v>9.582306257307078</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.1169126816754084</v>
+        <v>0.1153736938263437</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1364919072170115</v>
+        <v>0.1286161674198099</v>
       </c>
     </row>
     <row r="10">
@@ -720,13 +720,13 @@
         <v>3.086029051404904</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>5.751883765591959</v>
+        <v>5.751883765592014</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0.0383449506283702</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>0.06898743215548486</v>
+        <v>0.06898743215548554</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.701616812836428</v>
+        <v>-1.789708110579173</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.951693936626804</v>
+        <v>1.977833060465156</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.02033714223733015</v>
+        <v>-0.02126739614258958</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.02272337218588798</v>
+        <v>0.02355609158118587</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.50967095979598</v>
+        <v>7.609326714363515</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.743305800179694</v>
+        <v>9.878484125459709</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.09717294737878328</v>
+        <v>0.09778730151179667</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.1208015295359531</v>
+        <v>0.1230621384834906</v>
       </c>
     </row>
     <row r="13">
@@ -790,7 +790,7 @@
         <v>0.07307478579292163</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.08978847646397523</v>
+        <v>0.08978847646397521</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>4.119696957487505</v>
+        <v>4.30721175707989</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>5.076451343910174</v>
+        <v>5.182418512803816</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.05012594192576557</v>
+        <v>0.05202526198033255</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.06255334920633553</v>
+        <v>0.06399141566655998</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.723854473935048</v>
+        <v>7.736717858597175</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>9.348907297978094</v>
+        <v>9.249077734423457</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.09594740055900154</v>
+        <v>0.09539008348160088</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1193662394164086</v>
+        <v>0.1182019170320841</v>
       </c>
     </row>
     <row r="16">
